--- a/user-data/kenya-igf-resources/kenya-igf-resources.xlsx
+++ b/user-data/kenya-igf-resources/kenya-igf-resources.xlsx
@@ -202,7 +202,7 @@
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 32</t>
+    <t xml:space="preserve">Source: 33</t>
   </si>
   <si>
     <t xml:space="preserve"/>

--- a/user-data/kenya-igf-resources/kenya-igf-resources.xlsx
+++ b/user-data/kenya-igf-resources/kenya-igf-resources.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t xml:space="preserve">district_id</t>
   </si>
@@ -61,18 +61,48 @@
     <t xml:space="preserve">Elgeyo-Marakwet</t>
   </si>
   <si>
+    <t xml:space="preserve">d18955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garissa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18968</t>
   </si>
   <si>
     <t xml:space="preserve">Homa Bay</t>
   </si>
   <si>
+    <t xml:space="preserve">d18956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isiolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kajiado</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18989</t>
   </si>
   <si>
     <t xml:space="preserve">Kakamega</t>
   </si>
   <si>
+    <t xml:space="preserve">d18977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kericho</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18943</t>
   </si>
   <si>
@@ -103,36 +133,114 @@
     <t xml:space="preserve">Kisumu</t>
   </si>
   <si>
+    <t xml:space="preserve">d18957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitui</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18950</t>
   </si>
   <si>
     <t xml:space="preserve">Kwale</t>
   </si>
   <si>
+    <t xml:space="preserve">d18978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laikipia</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18951</t>
   </si>
   <si>
     <t xml:space="preserve">Lamu</t>
   </si>
   <si>
+    <t xml:space="preserve">d18958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machakos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makueni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandera</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18960</t>
   </si>
   <si>
     <t xml:space="preserve">Marsabit</t>
   </si>
   <si>
+    <t xml:space="preserve">d18961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mombasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murang'a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nairobi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18979</t>
   </si>
   <si>
     <t xml:space="preserve">Nakuru</t>
   </si>
   <si>
+    <t xml:space="preserve">d18980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nandi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narok</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18962</t>
   </si>
   <si>
     <t xml:space="preserve">Nithi</t>
   </si>
   <si>
+    <t xml:space="preserve">d18972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyamira</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18947</t>
   </si>
   <si>
@@ -163,24 +271,51 @@
     <t xml:space="preserve">Taita Taveta</t>
   </si>
   <si>
+    <t xml:space="preserve">d18954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tana River</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18983</t>
   </si>
   <si>
     <t xml:space="preserve">Trans-Nzoia</t>
   </si>
   <si>
+    <t xml:space="preserve">d18984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkana</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18985</t>
   </si>
   <si>
     <t xml:space="preserve">Uasin Gishu</t>
   </si>
   <si>
+    <t xml:space="preserve">d18990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vihiga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wajir</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18986</t>
   </si>
   <si>
     <t xml:space="preserve">West Pokot</t>
   </si>
   <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
     <t xml:space="preserve">2014</t>
   </si>
   <si>
@@ -202,7 +337,7 @@
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 33</t>
+    <t xml:space="preserve">Source: 35</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -563,87 +698,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -685,659 +820,3991 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D2" t="n">
-        <v>5499205.14174942</v>
+        <v>201500000</v>
       </c>
       <c r="E2" t="n">
-        <v>443000000</v>
+        <v>1568354.53027916</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D3" t="n">
-        <v>723494.12214064</v>
+        <v>249723429</v>
       </c>
       <c r="E3" t="n">
-        <v>71032050</v>
+        <v>1943696.6312109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D4" t="n">
-        <v>2140913.50656958</v>
+        <v>279317203</v>
       </c>
       <c r="E4" t="n">
-        <v>230330220</v>
+        <v>2174036.7280891</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D5" t="n">
-        <v>34184201.2082319</v>
+        <v>288518677</v>
       </c>
       <c r="E5" t="n">
-        <v>2753780000</v>
+        <v>2245655.45480446</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D6" t="n">
-        <v>5047510.63588155</v>
+        <v>301404377</v>
       </c>
       <c r="E6" t="n">
-        <v>543036527</v>
+        <v>2345949.97575145</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D7" t="n">
-        <v>7254576.98250686</v>
+        <v>200900000</v>
       </c>
       <c r="E7" t="n">
-        <v>584407659</v>
+        <v>1563684.4919756</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D8" t="n">
-        <v>1344480.75372406</v>
+        <v>206386334</v>
       </c>
       <c r="E8" t="n">
-        <v>132000000</v>
+        <v>1606386.80851914</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D9" t="n">
-        <v>1394060.26580145</v>
+        <v>166987287</v>
       </c>
       <c r="E9" t="n">
-        <v>149980000</v>
+        <v>1299728.37749616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D10" t="n">
-        <v>1381263.17888505</v>
+        <v>236697038</v>
       </c>
       <c r="E10" t="n">
-        <v>160021113</v>
+        <v>1842307.0563323</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D11" t="n">
-        <v>2190671.06904893</v>
+        <v>181375343</v>
       </c>
       <c r="E11" t="n">
-        <v>215078260</v>
+        <v>1411716.33188579</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D12" t="n">
-        <v>8904574.93867504</v>
+        <v>182700000</v>
       </c>
       <c r="E12" t="n">
-        <v>874243747</v>
+        <v>1422026.66343425</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D13" t="n">
-        <v>9294974.43526768</v>
+        <v>504623643</v>
       </c>
       <c r="E13" t="n">
-        <v>1000000000</v>
+        <v>3927686.23615395</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D14" t="n">
-        <v>37240666.8741496</v>
+        <v>630988485</v>
       </c>
       <c r="E14" t="n">
-        <v>3000000000</v>
+        <v>4911233.99009296</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D15" t="n">
-        <v>25622637.3257166</v>
+        <v>661588149</v>
       </c>
       <c r="E15" t="n">
-        <v>2064085271</v>
+        <v>5149403.32835311</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D16" t="n">
-        <v>10365151.1980405</v>
+        <v>656750139</v>
       </c>
       <c r="E16" t="n">
-        <v>834986486.66</v>
+        <v>5111747.17499809</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D17" t="n">
-        <v>14334184.0791887</v>
+        <v>329000000</v>
       </c>
       <c r="E17" t="n">
-        <v>1154720252</v>
+        <v>2560737.66978582</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D18" t="n">
-        <v>28954922.490345</v>
+        <v>315202075</v>
       </c>
       <c r="E18" t="n">
-        <v>2842770161</v>
+        <v>2453342.93935305</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D19" t="n">
-        <v>17368468.599563</v>
+        <v>334222084</v>
       </c>
       <c r="E19" t="n">
-        <v>1868587022</v>
+        <v>2601383.22362651</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C20" t="n">
         <v>2016</v>
       </c>
       <c r="D20" t="n">
-        <v>2788492.3305803</v>
+        <v>256826239</v>
       </c>
       <c r="E20" t="n">
-        <v>300000000</v>
+        <v>1998980.62248242</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D21" t="n">
-        <v>464748.72176338</v>
+        <v>176294585</v>
       </c>
       <c r="E21" t="n">
-        <v>50000000</v>
+        <v>1372170.77443392</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C22" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D22" t="n">
-        <v>561002.41904681</v>
+        <v>61000000</v>
       </c>
       <c r="E22" t="n">
-        <v>55078750</v>
+        <v>474787.227528678</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C23" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D23" t="n">
-        <v>26029866.3939227</v>
+        <v>128905771</v>
       </c>
       <c r="E23" t="n">
-        <v>2555590591</v>
+        <v>1003324.81353339</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C24" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D24" t="n">
-        <v>27059061.9364925</v>
+        <v>128055734</v>
       </c>
       <c r="E24" t="n">
-        <v>2911149689</v>
+        <v>996708.637950981</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C25" t="n">
         <v>2016</v>
       </c>
       <c r="D25" t="n">
-        <v>4611236.8173363</v>
+        <v>97323973</v>
       </c>
       <c r="E25" t="n">
-        <v>496100000</v>
+        <v>757511.136274523</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C26" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D26" t="n">
-        <v>2155817.45278615</v>
+        <v>105483195</v>
       </c>
       <c r="E26" t="n">
-        <v>211656361</v>
+        <v>821017.601719949</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C27" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="D27" t="n">
-        <v>8631755.85389818</v>
+        <v>168500000</v>
       </c>
       <c r="E27" t="n">
-        <v>1000000000</v>
+        <v>1311502.42358331</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C28" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D28" t="n">
-        <v>6628908.81556713</v>
+        <v>401105103</v>
       </c>
       <c r="E28" t="n">
-        <v>713171280</v>
+        <v>3121960.32460614</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C29" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D29" t="n">
-        <v>3191056.98554364</v>
+        <v>396525612</v>
       </c>
       <c r="E29" t="n">
-        <v>343309926</v>
+        <v>3086316.32730479</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C30" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D30" t="n">
-        <v>2330574.08055251</v>
+        <v>416272247</v>
       </c>
       <c r="E30" t="n">
-        <v>270000000</v>
+        <v>3240012.23033218</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C31" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D31" t="n">
-        <v>3866420.15702585</v>
+        <v>416111597</v>
       </c>
       <c r="E31" t="n">
-        <v>379601909</v>
+        <v>3238761.8275764</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C32" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D32" t="n">
-        <v>4497690.43905348</v>
+        <v>35900000</v>
       </c>
       <c r="E32" t="n">
-        <v>483884110.75</v>
+        <v>279423.958496386</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C33" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D33" t="n">
-        <v>3895790.54195329</v>
+        <v>130717649</v>
       </c>
       <c r="E33" t="n">
-        <v>451332337</v>
+        <v>1017427.37963569</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C34" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D34" t="n">
-        <v>3615991.49297633</v>
+        <v>105943675</v>
       </c>
       <c r="E34" t="n">
-        <v>389026513</v>
+        <v>824601.700449988</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C35" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D35" t="n">
-        <v>4315877.92694909</v>
+        <v>81958151</v>
       </c>
       <c r="E35" t="n">
-        <v>500000000</v>
+        <v>637912.840765028</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C36" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D36" t="n">
-        <v>12155650.4248186</v>
+        <v>86687563</v>
       </c>
       <c r="E36" t="n">
-        <v>1193431629</v>
+        <v>674723.732753895</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C37" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="D37" t="n">
-        <v>10289052.9778466</v>
+        <v>135000000</v>
       </c>
       <c r="E37" t="n">
-        <v>1192000000</v>
+        <v>1050758.61830117</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C38" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D38" t="n">
-        <v>1058262.48610109</v>
+        <v>157860245</v>
       </c>
       <c r="E38" t="n">
-        <v>103899329</v>
+        <v>1228688.98459914</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C39" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D39" t="n">
-        <v>2112824.31690559</v>
+        <v>183765405</v>
       </c>
       <c r="E39" t="n">
-        <v>227308244</v>
+        <v>1430319.13369893</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D40" t="n">
+        <v>144131692</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1121834.20399504</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D41" t="n">
+        <v>106939465</v>
+      </c>
+      <c r="E41" t="n">
+        <v>832352.329520493</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D42" t="n">
+        <v>125000000</v>
+      </c>
+      <c r="E42" t="n">
+        <v>972924.646575159</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D43" t="n">
+        <v>133699318</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1040634.89369992</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D44" t="n">
+        <v>110108172</v>
+      </c>
+      <c r="E44" t="n">
+        <v>857015.634625095</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D45" t="n">
+        <v>94996063</v>
+      </c>
+      <c r="E45" t="n">
+        <v>739392.088162453</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D46" t="n">
+        <v>114557116</v>
+      </c>
+      <c r="E46" t="n">
+        <v>891643.532775756</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D47" t="n">
+        <v>442800000</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3446488.26802784</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D48" t="n">
+        <v>785837768</v>
+      </c>
+      <c r="E48" t="n">
+        <v>6116487.4615745</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D49" t="n">
+        <v>650984978</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5066874.6371711</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D50" t="n">
+        <v>557094069</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4336084.40152754</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D51" t="n">
+        <v>682162558</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5309542.12519165</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D52" t="n">
+        <v>325200000</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2531160.76052993</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D53" t="n">
+        <v>516889024</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4023152.56795023</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D54" t="n">
+        <v>504238292</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3924686.8962701</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D55" t="n">
+        <v>443176020</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3449414.98103269</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D56" t="n">
+        <v>440611031</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3429450.65290233</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D57" t="n">
+        <v>371000000</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2887640.35103507</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D58" t="n">
+        <v>413581432</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3219068.54846919</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D59" t="n">
+        <v>434404563</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3381143.24741929</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D60" t="n">
+        <v>489980629</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3813713.84238799</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D61" t="n">
+        <v>414048710</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3222705.5587332</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1250000000</v>
+      </c>
+      <c r="E62" t="n">
+        <v>9729246.46575159</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2110856557</v>
+      </c>
+      <c r="E63" t="n">
+        <v>16429634.9575207</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2461351513</v>
+      </c>
+      <c r="E64" t="n">
+        <v>19157676.4070621</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2032980758</v>
+      </c>
+      <c r="E65" t="n">
+        <v>15823496.68377</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1693708234</v>
+      </c>
+      <c r="E66" t="n">
+        <v>13182803.8797271</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D67" t="n">
+        <v>459600000</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3577249.34052755</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D68" t="n">
+        <v>545499050</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4245835.76342668</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D69" t="n">
+        <v>519075625</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4040171.75199124</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D70" t="n">
+        <v>620093575</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4826434.57840322</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D71" t="n">
+        <v>523347190</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4073419.03893482</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D72" t="n">
+        <v>200400000</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1559792.7933893</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D73" t="n">
+        <v>311635045</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2425579.32813647</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D74" t="n">
+        <v>390377140</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3038460.32772417</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D75" t="n">
+        <v>320638299</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2495655.22986428</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D76" t="n">
+        <v>343970322</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2677257.63171355</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D77" t="n">
+        <v>250000000</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1945849.29315032</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D78" t="n">
+        <v>296771415</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2309889.79241988</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D79" t="n">
+        <v>306129638</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2382728.55885865</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D80" t="n">
+        <v>271644380</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2114316.09924503</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D81" t="n">
+        <v>256284854</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1994766.80800413</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D82" t="n">
+        <v>621900000</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4840494.70164073</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D83" t="n">
+        <v>970903407</v>
+      </c>
+      <c r="E83" t="n">
+        <v>7556926.83291274</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D84" t="n">
+        <v>978889261</v>
+      </c>
+      <c r="E84" t="n">
+        <v>7619083.90635715</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1004043906</v>
+      </c>
+      <c r="E85" t="n">
+        <v>7814872.49912794</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D86" t="n">
+        <v>874901775</v>
+      </c>
+      <c r="E86" t="n">
+        <v>6809708.00183884</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D87" t="n">
+        <v>255200000</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1986322.95844785</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D88" t="n">
+        <v>320521294</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2494744.5334781</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D89" t="n">
+        <v>416188728</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3239362.16878372</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D90" t="n">
+        <v>315347364</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2454473.78134486</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D91" t="n">
+        <v>335122477</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2608391.33995694</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D92" t="n">
+        <v>208500000</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1622838.31048737</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D93" t="n">
+        <v>253972260</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1976766.97040316</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>41</v>
+      </c>
+      <c r="B94" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D94" t="n">
+        <v>248617586</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1935089.41593135</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95" t="s">
+        <v>42</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D95" t="n">
+        <v>221011186</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1720217.84022565</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D96" t="n">
+        <v>276295129</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2150514.7258621</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>43</v>
+      </c>
+      <c r="B97" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D97" t="n">
+        <v>347000000</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2700838.81889264</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>43</v>
+      </c>
+      <c r="B98" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D98" t="n">
+        <v>400484744</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3117131.82411955</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" t="s">
+        <v>44</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D99" t="n">
+        <v>471147987</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3667131.90989258</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D100" t="n">
+        <v>462723251</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3601558.84353027</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>43</v>
+      </c>
+      <c r="B101" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D101" t="n">
+        <v>413328186</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3217097.43426881</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>45</v>
+      </c>
+      <c r="B102" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D102" t="n">
+        <v>35600000</v>
+      </c>
+      <c r="E102" t="n">
+        <v>277088.939344605</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>45</v>
+      </c>
+      <c r="B103" t="s">
+        <v>46</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D103" t="n">
+        <v>61672255</v>
+      </c>
+      <c r="E103" t="n">
+        <v>480019.655194945</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>45</v>
+      </c>
+      <c r="B104" t="s">
+        <v>46</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D104" t="n">
+        <v>57324400</v>
+      </c>
+      <c r="E104" t="n">
+        <v>446178.572881064</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>45</v>
+      </c>
+      <c r="B105" t="s">
+        <v>46</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D105" t="n">
+        <v>76960788</v>
+      </c>
+      <c r="E105" t="n">
+        <v>599016.379720366</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>45</v>
+      </c>
+      <c r="B106" t="s">
+        <v>46</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D106" t="n">
+        <v>55286688</v>
+      </c>
+      <c r="E106" t="n">
+        <v>430318.251061689</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>47</v>
+      </c>
+      <c r="B107" t="s">
+        <v>48</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1180000000</v>
+      </c>
+      <c r="E107" t="n">
+        <v>9184408.6636695</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>47</v>
+      </c>
+      <c r="B108" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1356559888</v>
+      </c>
+      <c r="E108" t="n">
+        <v>10558644.3967235</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>47</v>
+      </c>
+      <c r="B109" t="s">
+        <v>48</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1121680950</v>
+      </c>
+      <c r="E109" t="n">
+        <v>8730488.33479071</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>47</v>
+      </c>
+      <c r="B110" t="s">
+        <v>48</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1259304944</v>
+      </c>
+      <c r="E110" t="n">
+        <v>9801670.54057241</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>47</v>
+      </c>
+      <c r="B111" t="s">
+        <v>48</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1063726784</v>
+      </c>
+      <c r="E111" t="n">
+        <v>8279408.04300585</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>49</v>
+      </c>
+      <c r="B112" t="s">
+        <v>50</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D112" t="n">
+        <v>189200000</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1472618.74505616</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>49</v>
+      </c>
+      <c r="B113" t="s">
+        <v>50</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D113" t="n">
+        <v>215349954</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1676154.22308341</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114" t="s">
+        <v>50</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D114" t="n">
+        <v>213170805</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1659193.04091814</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>49</v>
+      </c>
+      <c r="B115" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D115" t="n">
+        <v>216257976</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1683221.71895087</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>49</v>
+      </c>
+      <c r="B116" t="s">
+        <v>50</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D116" t="n">
+        <v>319282234</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2485100.43737742</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>51</v>
+      </c>
+      <c r="B117" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D117" t="n">
+        <v>90100000</v>
+      </c>
+      <c r="E117" t="n">
+        <v>701284.085251375</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>51</v>
+      </c>
+      <c r="B118" t="s">
+        <v>52</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D118" t="n">
+        <v>87729461</v>
+      </c>
+      <c r="E118" t="n">
+        <v>682833.238701234</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>51</v>
+      </c>
+      <c r="B119" t="s">
+        <v>52</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D119" t="n">
+        <v>88234634</v>
+      </c>
+      <c r="E119" t="n">
+        <v>686765.200801108</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>51</v>
+      </c>
+      <c r="B120" t="s">
+        <v>52</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D120" t="n">
+        <v>55843625</v>
+      </c>
+      <c r="E120" t="n">
+        <v>434653.112932806</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>51</v>
+      </c>
+      <c r="B121" t="s">
+        <v>52</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D121" t="n">
+        <v>61813295</v>
+      </c>
+      <c r="E121" t="n">
+        <v>481117.425532168</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
         <v>53</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B122" t="s">
         <v>54</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C122" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D122" t="n">
+        <v>46000000</v>
+      </c>
+      <c r="E122" t="n">
+        <v>358036.269939659</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>53</v>
+      </c>
+      <c r="B123" t="s">
+        <v>54</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D123" t="n">
+        <v>99107465</v>
+      </c>
+      <c r="E123" t="n">
+        <v>771392.76286468</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>53</v>
+      </c>
+      <c r="B124" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D124" t="n">
+        <v>111943205</v>
+      </c>
+      <c r="E124" t="n">
+        <v>871298.425288925</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>53</v>
+      </c>
+      <c r="B125" t="s">
+        <v>54</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D125" t="n">
+        <v>128730136</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1001957.77657098</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>53</v>
+      </c>
+      <c r="B126" t="s">
+        <v>54</v>
+      </c>
+      <c r="C126" t="n">
         <v>2017</v>
       </c>
-      <c r="D40" t="n">
-        <v>1055194.4064707</v>
-      </c>
-      <c r="E40" t="n">
-        <v>122245627</v>
+      <c r="D126" t="n">
+        <v>83390480</v>
+      </c>
+      <c r="E126" t="n">
+        <v>649061.226253863</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>55</v>
+      </c>
+      <c r="B127" t="s">
+        <v>56</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D127" t="n">
+        <v>344000000</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2677488.62737484</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>55</v>
+      </c>
+      <c r="B128" t="s">
+        <v>56</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D128" t="n">
+        <v>539239910</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4197118.39084777</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>55</v>
+      </c>
+      <c r="B129" t="s">
+        <v>56</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D129" t="n">
+        <v>548289334</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4267553.65202304</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>55</v>
+      </c>
+      <c r="B130" t="s">
+        <v>56</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D130" t="n">
+        <v>552668157</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4301635.77058056</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>55</v>
+      </c>
+      <c r="B131" t="s">
+        <v>56</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D131" t="n">
+        <v>441690937</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3437855.99020941</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>57</v>
+      </c>
+      <c r="B132" t="s">
+        <v>58</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D132" t="n">
+        <v>238600000</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1857118.56538266</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>57</v>
+      </c>
+      <c r="B133" t="s">
+        <v>58</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D133" t="n">
+        <v>355111556</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2763974.28092844</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>57</v>
+      </c>
+      <c r="B134" t="s">
+        <v>58</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D134" t="n">
+        <v>339368968</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2641443.46599981</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>57</v>
+      </c>
+      <c r="B135" t="s">
+        <v>58</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D135" t="n">
+        <v>290815303</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2263531.00711938</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>57</v>
+      </c>
+      <c r="B136" t="s">
+        <v>58</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D136" t="n">
+        <v>222251290</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1729870.06219299</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>59</v>
+      </c>
+      <c r="B137" t="s">
+        <v>60</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1720000000</v>
+      </c>
+      <c r="E137" t="n">
+        <v>13387443.1368742</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>59</v>
+      </c>
+      <c r="B138" t="s">
+        <v>60</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2492600145</v>
+      </c>
+      <c r="E138" t="n">
+        <v>19400896.9210185</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>59</v>
+      </c>
+      <c r="B139" t="s">
+        <v>60</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2943520686</v>
+      </c>
+      <c r="E139" t="n">
+        <v>22910590.5849058</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>59</v>
+      </c>
+      <c r="B140" t="s">
+        <v>60</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D140" t="n">
+        <v>3166240961</v>
+      </c>
+      <c r="E140" t="n">
+        <v>24644110.9436217</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>59</v>
+      </c>
+      <c r="B141" t="s">
+        <v>60</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D141" t="n">
+        <v>3159156334</v>
+      </c>
+      <c r="E141" t="n">
+        <v>24588968.477861</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>61</v>
+      </c>
+      <c r="B142" t="s">
+        <v>62</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D142" t="n">
+        <v>420000000</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3269026.81249253</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>61</v>
+      </c>
+      <c r="B143" t="s">
+        <v>62</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D143" t="n">
+        <v>562227534</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4376040.19849419</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>61</v>
+      </c>
+      <c r="B144" t="s">
+        <v>62</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D144" t="n">
+        <v>617526359</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4806452.91664736</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>61</v>
+      </c>
+      <c r="B145" t="s">
+        <v>62</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D145" t="n">
+        <v>506685732</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3943736.29384621</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>61</v>
+      </c>
+      <c r="B146" t="s">
+        <v>62</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D146" t="n">
+        <v>453706818</v>
+      </c>
+      <c r="E146" t="n">
+        <v>3531380.36441112</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>63</v>
+      </c>
+      <c r="B147" t="s">
+        <v>64</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D147" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="E147" t="n">
+        <v>77833971.7260127</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>63</v>
+      </c>
+      <c r="B148" t="s">
+        <v>64</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D148" t="n">
+        <v>11500049480</v>
+      </c>
+      <c r="E148" t="n">
+        <v>89509452.6074068</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>63</v>
+      </c>
+      <c r="B149" t="s">
+        <v>64</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D149" t="n">
+        <v>11710008300</v>
+      </c>
+      <c r="E149" t="n">
+        <v>91143645.4933574</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>63</v>
+      </c>
+      <c r="B150" t="s">
+        <v>64</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D150" t="n">
+        <v>10929830353</v>
+      </c>
+      <c r="E150" t="n">
+        <v>85071210.6665518</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>63</v>
+      </c>
+      <c r="B151" t="s">
+        <v>64</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D151" t="n">
+        <v>10109419494</v>
+      </c>
+      <c r="E151" t="n">
+        <v>78685627.1062398</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>65</v>
+      </c>
+      <c r="B152" t="s">
+        <v>66</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1800000000</v>
+      </c>
+      <c r="E152" t="n">
+        <v>14010114.9106823</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>65</v>
+      </c>
+      <c r="B153" t="s">
+        <v>66</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2200279602</v>
+      </c>
+      <c r="E153" t="n">
+        <v>17125650.0331391</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>65</v>
+      </c>
+      <c r="B154" t="s">
+        <v>66</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2295462842</v>
+      </c>
+      <c r="E154" t="n">
+        <v>17866498.9942341</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>65</v>
+      </c>
+      <c r="B155" t="s">
+        <v>66</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1548294999</v>
+      </c>
+      <c r="E155" t="n">
+        <v>12050994.9175693</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>65</v>
+      </c>
+      <c r="B156" t="s">
+        <v>66</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2278646064</v>
+      </c>
+      <c r="E156" t="n">
+        <v>17735607.3318966</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>67</v>
+      </c>
+      <c r="B157" t="s">
+        <v>68</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D157" t="n">
+        <v>130500000</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1015733.33102447</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>67</v>
+      </c>
+      <c r="B158" t="s">
+        <v>68</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D158" t="n">
+        <v>298042483</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2319783.01949726</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>67</v>
+      </c>
+      <c r="B159" t="s">
+        <v>68</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D159" t="n">
+        <v>236898601</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1843875.9012166</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>67</v>
+      </c>
+      <c r="B160" t="s">
+        <v>68</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D160" t="n">
+        <v>244730757</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1904836.68208237</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>67</v>
+      </c>
+      <c r="B161" t="s">
+        <v>68</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D161" t="n">
+        <v>197886883</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1540232.20563708</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>69</v>
+      </c>
+      <c r="B162" t="s">
+        <v>70</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1500000000</v>
+      </c>
+      <c r="E162" t="n">
+        <v>11675095.7589019</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>69</v>
+      </c>
+      <c r="B163" t="s">
+        <v>70</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1639205710</v>
+      </c>
+      <c r="E163" t="n">
+        <v>12758589.0885259</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>69</v>
+      </c>
+      <c r="B164" t="s">
+        <v>70</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1752937952</v>
+      </c>
+      <c r="E164" t="n">
+        <v>13643812.2993423</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>69</v>
+      </c>
+      <c r="B165" t="s">
+        <v>70</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1533933960</v>
+      </c>
+      <c r="E165" t="n">
+        <v>11939217.2472211</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>69</v>
+      </c>
+      <c r="B166" t="s">
+        <v>70</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2188436615</v>
+      </c>
+      <c r="E166" t="n">
+        <v>17033471.3616081</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>71</v>
+      </c>
+      <c r="B167" t="s">
+        <v>72</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D167" t="n">
+        <v>85400000</v>
+      </c>
+      <c r="E167" t="n">
+        <v>664702.118540149</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>71</v>
+      </c>
+      <c r="B168" t="s">
+        <v>72</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D168" t="n">
+        <v>115729722</v>
+      </c>
+      <c r="E168" t="n">
+        <v>900770.391000731</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>71</v>
+      </c>
+      <c r="B169" t="s">
+        <v>72</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D169" t="n">
+        <v>139130083</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1082904.69464598</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>71</v>
+      </c>
+      <c r="B170" t="s">
+        <v>72</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D170" t="n">
+        <v>78569191</v>
+      </c>
+      <c r="E170" t="n">
+        <v>611535.219082969</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>71</v>
+      </c>
+      <c r="B171" t="s">
+        <v>72</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D171" t="n">
+        <v>126606742</v>
+      </c>
+      <c r="E171" t="n">
+        <v>985430.557715059</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>73</v>
+      </c>
+      <c r="B172" t="s">
+        <v>74</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D172" t="n">
+        <v>94000000</v>
+      </c>
+      <c r="E172" t="n">
+        <v>731639.33422452</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>73</v>
+      </c>
+      <c r="B173" t="s">
+        <v>74</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D173" t="n">
+        <v>104254684</v>
+      </c>
+      <c r="E173" t="n">
+        <v>811455.612676039</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>73</v>
+      </c>
+      <c r="B174" t="s">
+        <v>74</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D174" t="n">
+        <v>106981969</v>
+      </c>
+      <c r="E174" t="n">
+        <v>832683.155033917</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>73</v>
+      </c>
+      <c r="B175" t="s">
+        <v>74</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D175" t="n">
+        <v>93920087</v>
+      </c>
+      <c r="E175" t="n">
+        <v>731017.339606266</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>73</v>
+      </c>
+      <c r="B176" t="s">
+        <v>74</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D176" t="n">
+        <v>96617045</v>
+      </c>
+      <c r="E176" t="n">
+        <v>752008.83487809</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>75</v>
+      </c>
+      <c r="B177" t="s">
+        <v>76</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D177" t="n">
+        <v>138400000</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1077222.16868802</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>75</v>
+      </c>
+      <c r="B178" t="s">
+        <v>76</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D178" t="n">
+        <v>240629472</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1872914.75200934</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>75</v>
+      </c>
+      <c r="B179" t="s">
+        <v>76</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D179" t="n">
+        <v>279226186</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2173328.30662864</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>75</v>
+      </c>
+      <c r="B180" t="s">
+        <v>76</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D180" t="n">
+        <v>296766563</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2309852.0273768</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>75</v>
+      </c>
+      <c r="B181" t="s">
+        <v>76</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D181" t="n">
+        <v>318585599</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2479678.25048808</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>77</v>
+      </c>
+      <c r="B182" t="s">
+        <v>78</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D182" t="n">
+        <v>432200000</v>
+      </c>
+      <c r="E182" t="n">
+        <v>3363984.25799827</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>77</v>
+      </c>
+      <c r="B183" t="s">
+        <v>78</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D183" t="n">
+        <v>680700067</v>
+      </c>
+      <c r="E183" t="n">
+        <v>5298158.9768773</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>77</v>
+      </c>
+      <c r="B184" t="s">
+        <v>78</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D184" t="n">
+        <v>709554435</v>
+      </c>
+      <c r="E184" t="n">
+        <v>5522743.98318569</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>77</v>
+      </c>
+      <c r="B185" t="s">
+        <v>78</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D185" t="n">
+        <v>643139153</v>
+      </c>
+      <c r="E185" t="n">
+        <v>5005807.46504938</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>77</v>
+      </c>
+      <c r="B186" t="s">
+        <v>78</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D186" t="n">
+        <v>760225951</v>
+      </c>
+      <c r="E186" t="n">
+        <v>5917140.51755152</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>79</v>
+      </c>
+      <c r="B187" t="s">
+        <v>80</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D187" t="n">
+        <v>201000000</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1564462.83169286</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>79</v>
+      </c>
+      <c r="B188" t="s">
+        <v>80</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D188" t="n">
+        <v>195715348</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1523330.28625787</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>79</v>
+      </c>
+      <c r="B189" t="s">
+        <v>80</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D189" t="n">
+        <v>166836134</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1298551.89366333</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>79</v>
+      </c>
+      <c r="B190" t="s">
+        <v>80</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D190" t="n">
+        <v>187663504</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1460659.58643405</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>79</v>
+      </c>
+      <c r="B191" t="s">
+        <v>80</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D191" t="n">
+        <v>257292957</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2002613.27404402</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>81</v>
+      </c>
+      <c r="B192" t="s">
+        <v>82</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D192" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="E192" t="n">
+        <v>778339.717260127</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>81</v>
+      </c>
+      <c r="B193" t="s">
+        <v>82</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D193" t="n">
+        <v>143328488</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1115582.54825242</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>81</v>
+      </c>
+      <c r="B194" t="s">
+        <v>82</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D194" t="n">
+        <v>127931767</v>
+      </c>
+      <c r="E194" t="n">
+        <v>995743.753553685</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>81</v>
+      </c>
+      <c r="B195" t="s">
+        <v>82</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D195" t="n">
+        <v>172837124</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1345259.98226214</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>81</v>
+      </c>
+      <c r="B196" t="s">
+        <v>82</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D196" t="n">
+        <v>139336798</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1084513.63959251</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>83</v>
+      </c>
+      <c r="B197" t="s">
+        <v>84</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D197" t="n">
+        <v>126000000</v>
+      </c>
+      <c r="E197" t="n">
+        <v>980708.043747761</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>83</v>
+      </c>
+      <c r="B198" t="s">
+        <v>84</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D198" t="n">
+        <v>216603678</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1685912.45492024</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>83</v>
+      </c>
+      <c r="B199" t="s">
+        <v>84</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D199" t="n">
+        <v>172765506</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1344702.55092343</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>83</v>
+      </c>
+      <c r="B200" t="s">
+        <v>84</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D200" t="n">
+        <v>172017112</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1338877.50317984</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>83</v>
+      </c>
+      <c r="B201" t="s">
+        <v>84</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D201" t="n">
+        <v>193595795</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1506832.9634305</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>85</v>
+      </c>
+      <c r="B202" t="s">
+        <v>86</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D202" t="n">
+        <v>32000000</v>
+      </c>
+      <c r="E202" t="n">
+        <v>249068.709523241</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>85</v>
+      </c>
+      <c r="B203" t="s">
+        <v>86</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D203" t="n">
+        <v>33033490</v>
+      </c>
+      <c r="E203" t="n">
+        <v>257112.772667152</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>85</v>
+      </c>
+      <c r="B204" t="s">
+        <v>86</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D204" t="n">
+        <v>28405081</v>
+      </c>
+      <c r="E204" t="n">
+        <v>221088.02714291</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>85</v>
+      </c>
+      <c r="B205" t="s">
+        <v>86</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D205" t="n">
+        <v>27417024</v>
+      </c>
+      <c r="E205" t="n">
+        <v>213397.587082741</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>85</v>
+      </c>
+      <c r="B206" t="s">
+        <v>86</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D206" t="n">
+        <v>56625198</v>
+      </c>
+      <c r="E206" t="n">
+        <v>440736.406011187</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>87</v>
+      </c>
+      <c r="B207" t="s">
+        <v>88</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D207" t="n">
+        <v>201700000</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1569911.20971368</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>87</v>
+      </c>
+      <c r="B208" t="s">
+        <v>88</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D208" t="n">
+        <v>301267105</v>
+      </c>
+      <c r="E208" t="n">
+        <v>2344881.53325477</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>87</v>
+      </c>
+      <c r="B209" t="s">
+        <v>88</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D209" t="n">
+        <v>364970035</v>
+      </c>
+      <c r="E209" t="n">
+        <v>2840706.73850319</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>87</v>
+      </c>
+      <c r="B210" t="s">
+        <v>88</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D210" t="n">
+        <v>217893803</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1695954.01019754</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>87</v>
+      </c>
+      <c r="B211" t="s">
+        <v>88</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D211" t="n">
+        <v>246062902</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1915205.29570886</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>89</v>
+      </c>
+      <c r="B212" t="s">
+        <v>90</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D212" t="n">
+        <v>129700000</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1009506.61328639</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>89</v>
+      </c>
+      <c r="B213" t="s">
+        <v>90</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D213" t="n">
+        <v>126524507</v>
+      </c>
+      <c r="E213" t="n">
+        <v>984790.49004857</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>89</v>
+      </c>
+      <c r="B214" t="s">
+        <v>90</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D214" t="n">
+        <v>134015965</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1043099.48306443</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>89</v>
+      </c>
+      <c r="B215" t="s">
+        <v>90</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D215" t="n">
+        <v>186316769</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1450177.4130428</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>89</v>
+      </c>
+      <c r="B216" t="s">
+        <v>90</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D216" t="n">
+        <v>143896898</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1120006.70903929</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>91</v>
+      </c>
+      <c r="B217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D217" t="n">
+        <v>563700000</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4387500.98619534</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>91</v>
+      </c>
+      <c r="B218" t="s">
+        <v>92</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D218" t="n">
+        <v>800823542</v>
+      </c>
+      <c r="E218" t="n">
+        <v>6233127.69255534</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>91</v>
+      </c>
+      <c r="B219" t="s">
+        <v>92</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D219" t="n">
+        <v>719042325</v>
+      </c>
+      <c r="E219" t="n">
+        <v>5596591.99938565</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>91</v>
+      </c>
+      <c r="B220" t="s">
+        <v>92</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D220" t="n">
+        <v>663830778</v>
+      </c>
+      <c r="E220" t="n">
+        <v>5166858.6005709</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>91</v>
+      </c>
+      <c r="B221" t="s">
+        <v>92</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D221" t="n">
+        <v>819220211</v>
+      </c>
+      <c r="E221" t="n">
+        <v>6376316.27403522</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>93</v>
+      </c>
+      <c r="B222" t="s">
+        <v>94</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D222" t="n">
+        <v>123300000</v>
+      </c>
+      <c r="E222" t="n">
+        <v>959692.871381737</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>93</v>
+      </c>
+      <c r="B223" t="s">
+        <v>94</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D223" t="n">
+        <v>115939226</v>
+      </c>
+      <c r="E223" t="n">
+        <v>902401.04384198</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>93</v>
+      </c>
+      <c r="B224" t="s">
+        <v>94</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D224" t="n">
+        <v>138938281</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1081411.82350148</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>93</v>
+      </c>
+      <c r="B225" t="s">
+        <v>94</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D225" t="n">
+        <v>96033000</v>
+      </c>
+      <c r="E225" t="n">
+        <v>747462.980676418</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>93</v>
+      </c>
+      <c r="B226" t="s">
+        <v>94</v>
+      </c>
+      <c r="C226" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D226" t="n">
+        <v>143530752</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1117156.84929813</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>95</v>
+      </c>
+      <c r="B227" t="s">
+        <v>96</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D227" t="n">
+        <v>61000000</v>
+      </c>
+      <c r="E227" t="n">
+        <v>474787.227528678</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>95</v>
+      </c>
+      <c r="B228" t="s">
+        <v>96</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D228" t="n">
+        <v>107742634</v>
+      </c>
+      <c r="E228" t="n">
+        <v>838603.712844214</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>95</v>
+      </c>
+      <c r="B229" t="s">
+        <v>96</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D229" t="n">
+        <v>81782275</v>
+      </c>
+      <c r="E229" t="n">
+        <v>636543.9280039</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>95</v>
+      </c>
+      <c r="B230" t="s">
+        <v>96</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D230" t="n">
+        <v>75908720</v>
+      </c>
+      <c r="E230" t="n">
+        <v>590827.716623782</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>95</v>
+      </c>
+      <c r="B231" t="s">
+        <v>96</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D231" t="n">
+        <v>67608475</v>
+      </c>
+      <c r="E231" t="n">
+        <v>526223.613158884</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>97</v>
+      </c>
+      <c r="B232" t="s">
+        <v>98</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D232" t="n">
+        <v>58900000</v>
+      </c>
+      <c r="E232" t="n">
+        <v>458442.093466215</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>97</v>
+      </c>
+      <c r="B233" t="s">
+        <v>98</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D233" t="n">
+        <v>103899329</v>
+      </c>
+      <c r="E233" t="n">
+        <v>808689.74357377</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>97</v>
+      </c>
+      <c r="B234" t="s">
+        <v>98</v>
+      </c>
+      <c r="C234" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D234" t="n">
+        <v>98305114</v>
+      </c>
+      <c r="E234" t="n">
+        <v>765147.746359846</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>97</v>
+      </c>
+      <c r="B235" t="s">
+        <v>98</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D235" t="n">
+        <v>83218907</v>
+      </c>
+      <c r="E235" t="n">
+        <v>647725.805450768</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>97</v>
+      </c>
+      <c r="B236" t="s">
+        <v>98</v>
+      </c>
+      <c r="C236" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D236" t="n">
+        <v>88411177</v>
+      </c>
+      <c r="E236" t="n">
+        <v>688139.305088151</v>
       </c>
     </row>
   </sheetData>
@@ -1359,16 +4826,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2">
@@ -1376,302 +4846,939 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>5499205.14174942</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
+        <v>201500000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>249723429</v>
+      </c>
+      <c r="D2" t="n">
+        <v>279317203</v>
+      </c>
+      <c r="E2" t="n">
+        <v>288518677</v>
+      </c>
+      <c r="F2" t="n">
+        <v>301404377</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="n">
+        <v>200900000</v>
+      </c>
       <c r="C3" t="n">
-        <v>723494.12214064</v>
+        <v>206386334</v>
       </c>
       <c r="D3" t="n">
-        <v>2140913.50656958</v>
-      </c>
-      <c r="E3"/>
+        <v>166987287</v>
+      </c>
+      <c r="E3" t="n">
+        <v>236697038</v>
+      </c>
+      <c r="F3" t="n">
+        <v>181375343</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>34184201.2082319</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
+        <v>182700000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>504623643</v>
+      </c>
+      <c r="D4" t="n">
+        <v>630988485</v>
+      </c>
+      <c r="E4" t="n">
+        <v>661588149</v>
+      </c>
+      <c r="F4" t="n">
+        <v>656750139</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
+      <c r="B5" t="n">
+        <v>329000000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>315202075</v>
+      </c>
       <c r="D5" t="n">
-        <v>5047510.63588155</v>
-      </c>
-      <c r="E5"/>
+        <v>334222084</v>
+      </c>
+      <c r="E5" t="n">
+        <v>256826239</v>
+      </c>
+      <c r="F5" t="n">
+        <v>176294585</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>7254576.98250686</v>
+        <v>61000000</v>
       </c>
       <c r="C6" t="n">
-        <v>1344480.75372406</v>
+        <v>128905771</v>
       </c>
       <c r="D6" t="n">
-        <v>1394060.26580145</v>
+        <v>128055734</v>
       </c>
       <c r="E6" t="n">
-        <v>1381263.17888505</v>
+        <v>97323973</v>
+      </c>
+      <c r="F6" t="n">
+        <v>105483195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="n">
+        <v>168500000</v>
+      </c>
       <c r="C7" t="n">
-        <v>2190671.06904893</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7"/>
+        <v>401105103</v>
+      </c>
+      <c r="D7" t="n">
+        <v>396525612</v>
+      </c>
+      <c r="E7" t="n">
+        <v>416272247</v>
+      </c>
+      <c r="F7" t="n">
+        <v>416111597</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="n">
+        <v>35900000</v>
+      </c>
       <c r="C8" t="n">
-        <v>8904574.93867504</v>
+        <v>130717649</v>
       </c>
       <c r="D8" t="n">
-        <v>9294974.43526768</v>
-      </c>
-      <c r="E8"/>
+        <v>105943675</v>
+      </c>
+      <c r="E8" t="n">
+        <v>81958151</v>
+      </c>
+      <c r="F8" t="n">
+        <v>86687563</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="n">
-        <v>37240666.8741496</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
+        <v>135000000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>157860245</v>
+      </c>
+      <c r="D9" t="n">
+        <v>183765405</v>
+      </c>
+      <c r="E9" t="n">
+        <v>144131692</v>
+      </c>
+      <c r="F9" t="n">
+        <v>106939465</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>25622637.3257166</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
+        <v>125000000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>133699318</v>
+      </c>
+      <c r="D10" t="n">
+        <v>110108172</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94996063</v>
+      </c>
+      <c r="F10" t="n">
+        <v>114557116</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>10365151.1980405</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
+        <v>442800000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>785837768</v>
+      </c>
+      <c r="D11" t="n">
+        <v>650984978</v>
+      </c>
+      <c r="E11" t="n">
+        <v>557094069</v>
+      </c>
+      <c r="F11" t="n">
+        <v>682162558</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="B12" t="n">
-        <v>14334184.0791887</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
+        <v>325200000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>516889024</v>
+      </c>
+      <c r="D12" t="n">
+        <v>504238292</v>
+      </c>
+      <c r="E12" t="n">
+        <v>443176020</v>
+      </c>
+      <c r="F12" t="n">
+        <v>440611031</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13"/>
+      <c r="B13" t="n">
+        <v>371000000</v>
+      </c>
       <c r="C13" t="n">
-        <v>28954922.490345</v>
+        <v>413581432</v>
       </c>
       <c r="D13" t="n">
-        <v>17368468.599563</v>
-      </c>
-      <c r="E13"/>
+        <v>434404563</v>
+      </c>
+      <c r="E13" t="n">
+        <v>489980629</v>
+      </c>
+      <c r="F13" t="n">
+        <v>414048710</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14"/>
-      <c r="C14"/>
+      <c r="B14" t="n">
+        <v>1250000000</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2110856557</v>
+      </c>
       <c r="D14" t="n">
-        <v>2788492.3305803</v>
-      </c>
-      <c r="E14"/>
+        <v>2461351513</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2032980758</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1693708234</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15"/>
-      <c r="C15"/>
+      <c r="B15" t="n">
+        <v>459600000</v>
+      </c>
+      <c r="C15" t="n">
+        <v>545499050</v>
+      </c>
       <c r="D15" t="n">
-        <v>464748.72176338</v>
-      </c>
-      <c r="E15"/>
+        <v>519075625</v>
+      </c>
+      <c r="E15" t="n">
+        <v>620093575</v>
+      </c>
+      <c r="F15" t="n">
+        <v>523347190</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16"/>
+      <c r="B16" t="n">
+        <v>200400000</v>
+      </c>
       <c r="C16" t="n">
-        <v>561002.41904681</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16"/>
+        <v>311635045</v>
+      </c>
+      <c r="D16" t="n">
+        <v>390377140</v>
+      </c>
+      <c r="E16" t="n">
+        <v>320638299</v>
+      </c>
+      <c r="F16" t="n">
+        <v>343970322</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" t="n">
+        <v>250000000</v>
+      </c>
       <c r="C17" t="n">
-        <v>26029866.3939227</v>
+        <v>296771415</v>
       </c>
       <c r="D17" t="n">
-        <v>27059061.9364925</v>
-      </c>
-      <c r="E17"/>
+        <v>306129638</v>
+      </c>
+      <c r="E17" t="n">
+        <v>271644380</v>
+      </c>
+      <c r="F17" t="n">
+        <v>256284854</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18"/>
-      <c r="C18"/>
+      <c r="B18" t="n">
+        <v>621900000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>970903407</v>
+      </c>
       <c r="D18" t="n">
-        <v>4611236.8173363</v>
-      </c>
-      <c r="E18"/>
+        <v>978889261</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1004043906</v>
+      </c>
+      <c r="F18" t="n">
+        <v>874901775</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19"/>
+      <c r="B19" t="n">
+        <v>255200000</v>
+      </c>
       <c r="C19" t="n">
-        <v>2155817.45278615</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19"/>
+        <v>320521294</v>
+      </c>
+      <c r="D19" t="n">
+        <v>416188728</v>
+      </c>
+      <c r="E19" t="n">
+        <v>315347364</v>
+      </c>
+      <c r="F19" t="n">
+        <v>335122477</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
+      <c r="B20" t="n">
+        <v>208500000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>253972260</v>
+      </c>
+      <c r="D20" t="n">
+        <v>248617586</v>
+      </c>
       <c r="E20" t="n">
-        <v>8631755.85389818</v>
+        <v>221011186</v>
+      </c>
+      <c r="F20" t="n">
+        <v>276295129</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21"/>
-      <c r="C21"/>
+      <c r="B21" t="n">
+        <v>347000000</v>
+      </c>
+      <c r="C21" t="n">
+        <v>400484744</v>
+      </c>
       <c r="D21" t="n">
-        <v>6628908.81556713</v>
-      </c>
-      <c r="E21"/>
+        <v>471147987</v>
+      </c>
+      <c r="E21" t="n">
+        <v>462723251</v>
+      </c>
+      <c r="F21" t="n">
+        <v>413328186</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>45</v>
       </c>
-      <c r="B22"/>
-      <c r="C22"/>
+      <c r="B22" t="n">
+        <v>35600000</v>
+      </c>
+      <c r="C22" t="n">
+        <v>61672255</v>
+      </c>
       <c r="D22" t="n">
-        <v>3191056.98554364</v>
+        <v>57324400</v>
       </c>
       <c r="E22" t="n">
-        <v>2330574.08055251</v>
+        <v>76960788</v>
+      </c>
+      <c r="F22" t="n">
+        <v>55286688</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B23"/>
+      <c r="B23" t="n">
+        <v>1180000000</v>
+      </c>
       <c r="C23" t="n">
-        <v>3866420.15702585</v>
+        <v>1356559888</v>
       </c>
       <c r="D23" t="n">
-        <v>4497690.43905348</v>
+        <v>1121680950</v>
       </c>
       <c r="E23" t="n">
-        <v>3895790.54195329</v>
+        <v>1259304944</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1063726784</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B24"/>
-      <c r="C24"/>
+      <c r="B24" t="n">
+        <v>189200000</v>
+      </c>
+      <c r="C24" t="n">
+        <v>215349954</v>
+      </c>
       <c r="D24" t="n">
-        <v>3615991.49297633</v>
+        <v>213170805</v>
       </c>
       <c r="E24" t="n">
-        <v>4315877.92694909</v>
+        <v>216257976</v>
+      </c>
+      <c r="F24" t="n">
+        <v>319282234</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="B25"/>
+      <c r="B25" t="n">
+        <v>90100000</v>
+      </c>
       <c r="C25" t="n">
-        <v>12155650.4248186</v>
-      </c>
-      <c r="D25"/>
+        <v>87729461</v>
+      </c>
+      <c r="D25" t="n">
+        <v>88234634</v>
+      </c>
       <c r="E25" t="n">
-        <v>10289052.9778466</v>
+        <v>55843625</v>
+      </c>
+      <c r="F25" t="n">
+        <v>61813295</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>53</v>
       </c>
-      <c r="B26"/>
+      <c r="B26" t="n">
+        <v>46000000</v>
+      </c>
       <c r="C26" t="n">
-        <v>1058262.48610109</v>
+        <v>99107465</v>
       </c>
       <c r="D26" t="n">
-        <v>2112824.31690559</v>
+        <v>111943205</v>
       </c>
       <c r="E26" t="n">
-        <v>1055194.4064707</v>
+        <v>128730136</v>
+      </c>
+      <c r="F26" t="n">
+        <v>83390480</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="n">
+        <v>344000000</v>
+      </c>
+      <c r="C27" t="n">
+        <v>539239910</v>
+      </c>
+      <c r="D27" t="n">
+        <v>548289334</v>
+      </c>
+      <c r="E27" t="n">
+        <v>552668157</v>
+      </c>
+      <c r="F27" t="n">
+        <v>441690937</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="n">
+        <v>238600000</v>
+      </c>
+      <c r="C28" t="n">
+        <v>355111556</v>
+      </c>
+      <c r="D28" t="n">
+        <v>339368968</v>
+      </c>
+      <c r="E28" t="n">
+        <v>290815303</v>
+      </c>
+      <c r="F28" t="n">
+        <v>222251290</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1720000000</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2492600145</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2943520686</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3166240961</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3159156334</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="n">
+        <v>420000000</v>
+      </c>
+      <c r="C30" t="n">
+        <v>562227534</v>
+      </c>
+      <c r="D30" t="n">
+        <v>617526359</v>
+      </c>
+      <c r="E30" t="n">
+        <v>506685732</v>
+      </c>
+      <c r="F30" t="n">
+        <v>453706818</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="C31" t="n">
+        <v>11500049480</v>
+      </c>
+      <c r="D31" t="n">
+        <v>11710008300</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10929830353</v>
+      </c>
+      <c r="F31" t="n">
+        <v>10109419494</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1800000000</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2200279602</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2295462842</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1548294999</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2278646064</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="n">
+        <v>130500000</v>
+      </c>
+      <c r="C33" t="n">
+        <v>298042483</v>
+      </c>
+      <c r="D33" t="n">
+        <v>236898601</v>
+      </c>
+      <c r="E33" t="n">
+        <v>244730757</v>
+      </c>
+      <c r="F33" t="n">
+        <v>197886883</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1500000000</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1639205710</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1752937952</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1533933960</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2188436615</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="n">
+        <v>85400000</v>
+      </c>
+      <c r="C35" t="n">
+        <v>115729722</v>
+      </c>
+      <c r="D35" t="n">
+        <v>139130083</v>
+      </c>
+      <c r="E35" t="n">
+        <v>78569191</v>
+      </c>
+      <c r="F35" t="n">
+        <v>126606742</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="n">
+        <v>94000000</v>
+      </c>
+      <c r="C36" t="n">
+        <v>104254684</v>
+      </c>
+      <c r="D36" t="n">
+        <v>106981969</v>
+      </c>
+      <c r="E36" t="n">
+        <v>93920087</v>
+      </c>
+      <c r="F36" t="n">
+        <v>96617045</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="n">
+        <v>138400000</v>
+      </c>
+      <c r="C37" t="n">
+        <v>240629472</v>
+      </c>
+      <c r="D37" t="n">
+        <v>279226186</v>
+      </c>
+      <c r="E37" t="n">
+        <v>296766563</v>
+      </c>
+      <c r="F37" t="n">
+        <v>318585599</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="n">
+        <v>432200000</v>
+      </c>
+      <c r="C38" t="n">
+        <v>680700067</v>
+      </c>
+      <c r="D38" t="n">
+        <v>709554435</v>
+      </c>
+      <c r="E38" t="n">
+        <v>643139153</v>
+      </c>
+      <c r="F38" t="n">
+        <v>760225951</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="n">
+        <v>201000000</v>
+      </c>
+      <c r="C39" t="n">
+        <v>195715348</v>
+      </c>
+      <c r="D39" t="n">
+        <v>166836134</v>
+      </c>
+      <c r="E39" t="n">
+        <v>187663504</v>
+      </c>
+      <c r="F39" t="n">
+        <v>257292957</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="C40" t="n">
+        <v>143328488</v>
+      </c>
+      <c r="D40" t="n">
+        <v>127931767</v>
+      </c>
+      <c r="E40" t="n">
+        <v>172837124</v>
+      </c>
+      <c r="F40" t="n">
+        <v>139336798</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="n">
+        <v>126000000</v>
+      </c>
+      <c r="C41" t="n">
+        <v>216603678</v>
+      </c>
+      <c r="D41" t="n">
+        <v>172765506</v>
+      </c>
+      <c r="E41" t="n">
+        <v>172017112</v>
+      </c>
+      <c r="F41" t="n">
+        <v>193595795</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="n">
+        <v>32000000</v>
+      </c>
+      <c r="C42" t="n">
+        <v>33033490</v>
+      </c>
+      <c r="D42" t="n">
+        <v>28405081</v>
+      </c>
+      <c r="E42" t="n">
+        <v>27417024</v>
+      </c>
+      <c r="F42" t="n">
+        <v>56625198</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="n">
+        <v>201700000</v>
+      </c>
+      <c r="C43" t="n">
+        <v>301267105</v>
+      </c>
+      <c r="D43" t="n">
+        <v>364970035</v>
+      </c>
+      <c r="E43" t="n">
+        <v>217893803</v>
+      </c>
+      <c r="F43" t="n">
+        <v>246062902</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="n">
+        <v>129700000</v>
+      </c>
+      <c r="C44" t="n">
+        <v>126524507</v>
+      </c>
+      <c r="D44" t="n">
+        <v>134015965</v>
+      </c>
+      <c r="E44" t="n">
+        <v>186316769</v>
+      </c>
+      <c r="F44" t="n">
+        <v>143896898</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="n">
+        <v>563700000</v>
+      </c>
+      <c r="C45" t="n">
+        <v>800823542</v>
+      </c>
+      <c r="D45" t="n">
+        <v>719042325</v>
+      </c>
+      <c r="E45" t="n">
+        <v>663830778</v>
+      </c>
+      <c r="F45" t="n">
+        <v>819220211</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="n">
+        <v>123300000</v>
+      </c>
+      <c r="C46" t="n">
+        <v>115939226</v>
+      </c>
+      <c r="D46" t="n">
+        <v>138938281</v>
+      </c>
+      <c r="E46" t="n">
+        <v>96033000</v>
+      </c>
+      <c r="F46" t="n">
+        <v>143530752</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="n">
+        <v>61000000</v>
+      </c>
+      <c r="C47" t="n">
+        <v>107742634</v>
+      </c>
+      <c r="D47" t="n">
+        <v>81782275</v>
+      </c>
+      <c r="E47" t="n">
+        <v>75908720</v>
+      </c>
+      <c r="F47" t="n">
+        <v>67608475</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="n">
+        <v>58900000</v>
+      </c>
+      <c r="C48" t="n">
+        <v>103899329</v>
+      </c>
+      <c r="D48" t="n">
+        <v>98305114</v>
+      </c>
+      <c r="E48" t="n">
+        <v>83218907</v>
+      </c>
+      <c r="F48" t="n">
+        <v>88411177</v>
       </c>
     </row>
   </sheetData>
